--- a/result-cybershake-1.xlsx
+++ b/result-cybershake-1.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE36"/>
+  <dimension ref="A1:AE48"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
@@ -440,31 +440,31 @@
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="19" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="19" customWidth="1" min="9" max="9"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="19" customWidth="1" min="11" max="11"/>
     <col width="19" customWidth="1" min="12" max="12"/>
     <col width="19" customWidth="1" min="13" max="13"/>
-    <col width="20" customWidth="1" min="14" max="14"/>
-    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="19" customWidth="1" min="14" max="14"/>
+    <col width="19" customWidth="1" min="15" max="15"/>
     <col width="19" customWidth="1" min="16" max="16"/>
-    <col width="20" customWidth="1" min="17" max="17"/>
-    <col width="20" customWidth="1" min="18" max="18"/>
+    <col width="19" customWidth="1" min="17" max="17"/>
+    <col width="19" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
-    <col width="20" customWidth="1" min="20" max="20"/>
-    <col width="20" customWidth="1" min="21" max="21"/>
-    <col width="20" customWidth="1" min="22" max="22"/>
-    <col width="20" customWidth="1" min="23" max="23"/>
-    <col width="20" customWidth="1" min="24" max="24"/>
-    <col width="20" customWidth="1" min="25" max="25"/>
-    <col width="20" customWidth="1" min="26" max="26"/>
-    <col width="20" customWidth="1" min="27" max="27"/>
+    <col width="19" customWidth="1" min="20" max="20"/>
+    <col width="19" customWidth="1" min="21" max="21"/>
+    <col width="19" customWidth="1" min="22" max="22"/>
+    <col width="19" customWidth="1" min="23" max="23"/>
+    <col width="19" customWidth="1" min="24" max="24"/>
+    <col width="19" customWidth="1" min="25" max="25"/>
+    <col width="19" customWidth="1" min="26" max="26"/>
+    <col width="19" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
-    <col width="20" customWidth="1" min="29" max="29"/>
-    <col width="20" customWidth="1" min="30" max="30"/>
-    <col width="20" customWidth="1" min="31" max="31"/>
+    <col width="19" customWidth="1" min="29" max="29"/>
+    <col width="19" customWidth="1" min="30" max="30"/>
+    <col width="19" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -509,16 +509,16 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>2849.647619047619</v>
+        <v>2484.428571428572</v>
       </c>
       <c r="D2" t="n">
-        <v>1592.047619047619</v>
+        <v>2484.428571428572</v>
       </c>
       <c r="E2" t="n">
-        <v>4142.047619047619</v>
+        <v>2484.428571428572</v>
       </c>
       <c r="F2" t="n">
-        <v>610.2411765152686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -531,16 +531,16 @@
         <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>6141.553658536585</v>
+        <v>6536.926829268293</v>
       </c>
       <c r="D3" t="n">
-        <v>3812</v>
+        <v>6536.926829268293</v>
       </c>
       <c r="E3" t="n">
-        <v>9369.317073170732</v>
+        <v>6536.926829268293</v>
       </c>
       <c r="F3" t="n">
-        <v>1450.887442190061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -553,16 +553,16 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>12330.6900990099</v>
+        <v>10826.28712871287</v>
       </c>
       <c r="D4" t="n">
-        <v>7441.247524752475</v>
+        <v>10826.28712871287</v>
       </c>
       <c r="E4" t="n">
-        <v>15432.53465346535</v>
+        <v>10826.28712871287</v>
       </c>
       <c r="F4" t="n">
-        <v>2158.097791373383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -575,16 +575,16 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>2619.92380952381</v>
+        <v>2819.333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>1912.619047619048</v>
+        <v>2819.333333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>2965.333333333333</v>
+        <v>2819.333333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>323.0686708381014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -597,16 +597,16 @@
         <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>6426.390243902439</v>
+        <v>6483.487804878048</v>
       </c>
       <c r="D6" t="n">
-        <v>5014.317073170731</v>
+        <v>6483.487804878048</v>
       </c>
       <c r="E6" t="n">
-        <v>8074.439024390244</v>
+        <v>6483.487804878048</v>
       </c>
       <c r="F6" t="n">
-        <v>781.1083003774194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -619,16 +619,16 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>11982.38118811881</v>
+        <v>12877.15841584158</v>
       </c>
       <c r="D7" t="n">
-        <v>8572.267326732674</v>
+        <v>12877.15841584158</v>
       </c>
       <c r="E7" t="n">
-        <v>13425.74257425743</v>
+        <v>12877.15841584158</v>
       </c>
       <c r="F7" t="n">
-        <v>1336.064728915472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -641,16 +641,16 @@
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>2638.442857142857</v>
+        <v>3902.857142857143</v>
       </c>
       <c r="D8" t="n">
-        <v>1600.47619047619</v>
+        <v>3902.857142857143</v>
       </c>
       <c r="E8" t="n">
-        <v>3226.380952380952</v>
+        <v>3902.857142857143</v>
       </c>
       <c r="F8" t="n">
-        <v>470.44408703367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -663,16 +663,16 @@
         <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>6176.431707317073</v>
+        <v>6932.414634146341</v>
       </c>
       <c r="D9" t="n">
-        <v>4149.146341463415</v>
+        <v>6932.414634146341</v>
       </c>
       <c r="E9" t="n">
-        <v>8416.390243902439</v>
+        <v>6932.414634146341</v>
       </c>
       <c r="F9" t="n">
-        <v>1230.710933384703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -685,16 +685,16 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>12505.61188118812</v>
+        <v>9768.524752475247</v>
       </c>
       <c r="D10" t="n">
-        <v>8030.772277227723</v>
+        <v>9768.524752475247</v>
       </c>
       <c r="E10" t="n">
-        <v>15943.81188118812</v>
+        <v>9768.524752475247</v>
       </c>
       <c r="F10" t="n">
-        <v>2788.668790718437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -707,16 +707,16 @@
         <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>2251.209523809524</v>
+        <v>2318.857142857143</v>
       </c>
       <c r="D11" t="n">
-        <v>1498.809523809524</v>
+        <v>2318.857142857143</v>
       </c>
       <c r="E11" t="n">
-        <v>2743.285714285714</v>
+        <v>2318.857142857143</v>
       </c>
       <c r="F11" t="n">
-        <v>317.7767575899771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -729,16 +729,16 @@
         <v>40</v>
       </c>
       <c r="C12" t="n">
-        <v>2776.019512195122</v>
+        <v>2613.512195121951</v>
       </c>
       <c r="D12" t="n">
-        <v>2243.731707317073</v>
+        <v>2613.512195121951</v>
       </c>
       <c r="E12" t="n">
-        <v>3172.682926829268</v>
+        <v>2613.512195121951</v>
       </c>
       <c r="F12" t="n">
-        <v>285.5195743567655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -751,82 +751,148 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>6301.478217821782</v>
+        <v>5947.564356435643</v>
       </c>
       <c r="D13" t="n">
-        <v>5555.633663366337</v>
+        <v>5947.564356435643</v>
       </c>
       <c r="E13" t="n">
-        <v>7049.247524752475</v>
+        <v>5947.564356435643</v>
       </c>
       <c r="F13" t="n">
-        <v>460.430704455653</v>
-      </c>
-    </row>
-    <row r="14"/>
-    <row r="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3284.333333333333</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3284.333333333333</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3284.333333333333</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>40</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7428.609756097561</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7428.609756097561</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7428.609756097561</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
-          <t>Summary by Algorithm</t>
-        </is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9332.39603960396</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9332.39603960396</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9332.39603960396</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Random</t>
-        </is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>7107.297125531369</v>
+        <v>2205.809523809524</v>
       </c>
       <c r="D17" t="n">
-        <v>1592.047619047619</v>
+        <v>2205.809523809524</v>
       </c>
       <c r="E17" t="n">
-        <v>15432.53465346535</v>
+        <v>2205.809523809524</v>
       </c>
       <c r="F17" t="n">
-        <v>4222.121451752249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fuzzy</t>
-        </is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>7009.56508051502</v>
+        <v>2271.707317073171</v>
       </c>
       <c r="D18" t="n">
-        <v>1912.619047619048</v>
+        <v>2271.707317073171</v>
       </c>
       <c r="E18" t="n">
-        <v>13425.74257425743</v>
+        <v>2271.707317073171</v>
       </c>
       <c r="F18" t="n">
-        <v>3951.266291580407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NSGA3</t>
-        </is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>7106.828815216017</v>
+        <v>11069.49504950495</v>
       </c>
       <c r="D19" t="n">
-        <v>1600.47619047619</v>
+        <v>11069.49504950495</v>
       </c>
       <c r="E19" t="n">
-        <v>15943.81188118812</v>
+        <v>11069.49504950495</v>
       </c>
       <c r="F19" t="n">
-        <v>4453.149114466595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -849,92 +915,140 @@
       </c>
     </row>
     <row r="21"/>
-    <row r="22"/>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>Summary by Algorithm</t>
+        </is>
+      </c>
+    </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>Average data for chart</t>
-        </is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>6615.880843136579</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2484.428571428572</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10826.28712871287</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3406.007080601738</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Algorithms</t>
+          <t>Fuzzy</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>20</v>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>7393.326518017655</v>
       </c>
       <c r="D24" t="n">
-        <v>100</v>
+        <v>2819.333333333333</v>
+      </c>
+      <c r="E24" t="n">
+        <v>12877.15841584158</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4156.185447460903</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Random</t>
+          <t>NSGA3</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2849.647619047619</v>
       </c>
       <c r="C25" t="n">
-        <v>6141.553658536585</v>
+        <v>6867.93217649291</v>
       </c>
       <c r="D25" t="n">
-        <v>12330.6900990099</v>
+        <v>3902.857142857143</v>
+      </c>
+      <c r="E25" t="n">
+        <v>9768.524752475247</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2395.082826283816</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fuzzy</t>
+          <t>QUEST</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2619.92380952381</v>
       </c>
       <c r="C26" t="n">
-        <v>6426.390243902439</v>
+        <v>3626.644564804913</v>
       </c>
       <c r="D26" t="n">
-        <v>11982.38118811881</v>
+        <v>2318.857142857143</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5947.564356435643</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1645.540824844266</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NSGA3</t>
+          <t>MQGA</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2638.442857142857</v>
       </c>
       <c r="C27" t="n">
-        <v>6176.431707317073</v>
+        <v>6681.779709678285</v>
       </c>
       <c r="D27" t="n">
-        <v>12505.61188118812</v>
+        <v>3284.333333333333</v>
+      </c>
+      <c r="E27" t="n">
+        <v>9332.39603960396</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2524.953064041832</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>QUEST</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2251.209523809524</v>
       </c>
       <c r="C28" t="n">
-        <v>2776.019512195122</v>
+        <v>5182.337296795882</v>
       </c>
       <c r="D28" t="n">
-        <v>6301.478217821782</v>
+        <v>2205.809523809524</v>
+      </c>
+      <c r="E28" t="n">
+        <v>11069.49504950495</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4162.936097976293</v>
       </c>
     </row>
     <row r="29"/>
@@ -942,7 +1056,7 @@
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>All data for chart</t>
+          <t>Average data for chart</t>
         </is>
       </c>
     </row>
@@ -956,10 +1070,10 @@
         <v>20</v>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D32" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E32" t="n">
         <v>20</v>
@@ -1050,13 +1164,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2424.047619047619</v>
+        <v>2484.428571428572</v>
       </c>
       <c r="C33" t="n">
-        <v>2859.47619047619</v>
+        <v>6536.926829268293</v>
       </c>
       <c r="D33" t="n">
-        <v>1592.047619047619</v>
+        <v>10826.28712871287</v>
       </c>
       <c r="E33" t="n">
         <v>2936.190476190476</v>
@@ -1147,13 +1261,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2819.714285714286</v>
+        <v>2819.333333333333</v>
       </c>
       <c r="C34" t="n">
-        <v>2934.47619047619</v>
+        <v>6483.487804878048</v>
       </c>
       <c r="D34" t="n">
-        <v>1912.619047619048</v>
+        <v>12877.15841584158</v>
       </c>
       <c r="E34" t="n">
         <v>2602.047619047619</v>
@@ -1244,13 +1358,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2492.333333333333</v>
+        <v>3902.857142857143</v>
       </c>
       <c r="C35" t="n">
-        <v>2589.714285714286</v>
+        <v>6932.414634146341</v>
       </c>
       <c r="D35" t="n">
-        <v>1600.47619047619</v>
+        <v>9768.524752475247</v>
       </c>
       <c r="E35" t="n">
         <v>3053.761904761905</v>
@@ -1341,13 +1455,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2304.571428571428</v>
+        <v>2318.857142857143</v>
       </c>
       <c r="C36" t="n">
-        <v>2474.714285714286</v>
+        <v>2613.512195121951</v>
       </c>
       <c r="D36" t="n">
-        <v>1498.809523809524</v>
+        <v>5947.564356435643</v>
       </c>
       <c r="E36" t="n">
         <v>2494.142857142857</v>
@@ -1429,6 +1543,411 @@
       </c>
       <c r="AE36" t="n">
         <v>5959.227722772277</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>3284.333333333333</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7428.609756097561</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9332.39603960396</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2205.809523809524</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2271.707317073171</v>
+      </c>
+      <c r="D38" t="n">
+        <v>11069.49504950495</v>
+      </c>
+    </row>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>All data for chart</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>20</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="n">
+        <v>100</v>
+      </c>
+      <c r="E42" t="n">
+        <v>20</v>
+      </c>
+      <c r="F42" t="n">
+        <v>20</v>
+      </c>
+      <c r="G42" t="n">
+        <v>40</v>
+      </c>
+      <c r="H42" t="n">
+        <v>40</v>
+      </c>
+      <c r="I42" t="n">
+        <v>40</v>
+      </c>
+      <c r="J42" t="n">
+        <v>40</v>
+      </c>
+      <c r="K42" t="n">
+        <v>40</v>
+      </c>
+      <c r="L42" t="n">
+        <v>100</v>
+      </c>
+      <c r="M42" t="n">
+        <v>100</v>
+      </c>
+      <c r="N42" t="n">
+        <v>100</v>
+      </c>
+      <c r="O42" t="n">
+        <v>100</v>
+      </c>
+      <c r="P42" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2484.428571428572</v>
+      </c>
+      <c r="C43" t="n">
+        <v>6536.926829268293</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10826.28712871287</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3555.52380952381</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2536.857142857143</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4444.243902439024</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4703.829268292683</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4454.487804878048</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4572.926829268293</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5279.975609756098</v>
+      </c>
+      <c r="L43" t="n">
+        <v>9903.198019801981</v>
+      </c>
+      <c r="M43" t="n">
+        <v>15004.26732673267</v>
+      </c>
+      <c r="N43" t="n">
+        <v>13353.07920792079</v>
+      </c>
+      <c r="O43" t="n">
+        <v>14066.0396039604</v>
+      </c>
+      <c r="P43" t="n">
+        <v>10533.90099009901</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2819.333333333333</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6483.487804878048</v>
+      </c>
+      <c r="D44" t="n">
+        <v>12877.15841584158</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2601.190476190476</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2953.952380952381</v>
+      </c>
+      <c r="G44" t="n">
+        <v>6486.756097560976</v>
+      </c>
+      <c r="H44" t="n">
+        <v>6419.390243902439</v>
+      </c>
+      <c r="I44" t="n">
+        <v>6040.170731707317</v>
+      </c>
+      <c r="J44" t="n">
+        <v>6105.731707317073</v>
+      </c>
+      <c r="K44" t="n">
+        <v>5016.609756097561</v>
+      </c>
+      <c r="L44" t="n">
+        <v>12884.31683168317</v>
+      </c>
+      <c r="M44" t="n">
+        <v>13127.59405940594</v>
+      </c>
+      <c r="N44" t="n">
+        <v>11149.47524752475</v>
+      </c>
+      <c r="O44" t="n">
+        <v>12960.89108910891</v>
+      </c>
+      <c r="P44" t="n">
+        <v>12038.46534653465</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>3902.857142857143</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6932.414634146341</v>
+      </c>
+      <c r="D45" t="n">
+        <v>9768.524752475247</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3463.619047619048</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3728.809523809524</v>
+      </c>
+      <c r="G45" t="n">
+        <v>7941</v>
+      </c>
+      <c r="H45" t="n">
+        <v>6941.146341463415</v>
+      </c>
+      <c r="I45" t="n">
+        <v>6580.536585365854</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3761.90243902439</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4019.975609756098</v>
+      </c>
+      <c r="L45" t="n">
+        <v>11662.9603960396</v>
+      </c>
+      <c r="M45" t="n">
+        <v>12472.42574257426</v>
+      </c>
+      <c r="N45" t="n">
+        <v>13027.30693069307</v>
+      </c>
+      <c r="O45" t="n">
+        <v>13906.15841584158</v>
+      </c>
+      <c r="P45" t="n">
+        <v>13305.87128712871</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2318.857142857143</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2613.512195121951</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5947.564356435643</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2494.714285714286</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2316.047619047619</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2808.243902439024</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2721.829268292683</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2649.975609756098</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2227.243902439024</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2962.487804878049</v>
+      </c>
+      <c r="L46" t="n">
+        <v>6103.247524752475</v>
+      </c>
+      <c r="M46" t="n">
+        <v>7397.990099009901</v>
+      </c>
+      <c r="N46" t="n">
+        <v>6411.782178217822</v>
+      </c>
+      <c r="O46" t="n">
+        <v>6126.980198019802</v>
+      </c>
+      <c r="P46" t="n">
+        <v>6842.861386138614</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>3284.333333333333</v>
+      </c>
+      <c r="C47" t="n">
+        <v>7428.609756097561</v>
+      </c>
+      <c r="D47" t="n">
+        <v>9332.39603960396</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2702.047619047619</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2752.809523809524</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3799.707317073171</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5171.292682926829</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3350.585365853658</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2722.024390243902</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4179.390243902439</v>
+      </c>
+      <c r="L47" t="n">
+        <v>6625.356435643565</v>
+      </c>
+      <c r="M47" t="n">
+        <v>7287.40594059406</v>
+      </c>
+      <c r="N47" t="n">
+        <v>8705.79207920792</v>
+      </c>
+      <c r="O47" t="n">
+        <v>6236.257425742574</v>
+      </c>
+      <c r="P47" t="n">
+        <v>6529.90099009901</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2205.809523809524</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2271.707317073171</v>
+      </c>
+      <c r="D48" t="n">
+        <v>11069.49504950495</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2382.666666666667</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2195.619047619048</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2282.487804878049</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2494.463414634146</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2198.658536585366</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1889.463414634146</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2268.682926829268</v>
+      </c>
+      <c r="L48" t="n">
+        <v>11063.33663366337</v>
+      </c>
+      <c r="M48" t="n">
+        <v>12038.33663366337</v>
+      </c>
+      <c r="N48" t="n">
+        <v>13033.18811881188</v>
+      </c>
+      <c r="O48" t="n">
+        <v>11753.76237623762</v>
+      </c>
+      <c r="P48" t="n">
+        <v>12562.42574257426</v>
       </c>
     </row>
   </sheetData>
@@ -1442,7 +1961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE36"/>
+  <dimension ref="A1:AE48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -1456,31 +1975,31 @@
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="19" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="19" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="19" customWidth="1" min="11" max="11"/>
     <col width="19" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="19" customWidth="1" min="13" max="13"/>
     <col width="19" customWidth="1" min="14" max="14"/>
     <col width="19" customWidth="1" min="15" max="15"/>
     <col width="19" customWidth="1" min="16" max="16"/>
-    <col width="20" customWidth="1" min="17" max="17"/>
-    <col width="20" customWidth="1" min="18" max="18"/>
-    <col width="20" customWidth="1" min="19" max="19"/>
-    <col width="20" customWidth="1" min="20" max="20"/>
+    <col width="19" customWidth="1" min="17" max="17"/>
+    <col width="19" customWidth="1" min="18" max="18"/>
+    <col width="19" customWidth="1" min="19" max="19"/>
+    <col width="19" customWidth="1" min="20" max="20"/>
     <col width="19" customWidth="1" min="21" max="21"/>
-    <col width="20" customWidth="1" min="22" max="22"/>
-    <col width="20" customWidth="1" min="23" max="23"/>
-    <col width="20" customWidth="1" min="24" max="24"/>
-    <col width="20" customWidth="1" min="25" max="25"/>
-    <col width="20" customWidth="1" min="26" max="26"/>
+    <col width="19" customWidth="1" min="22" max="22"/>
+    <col width="19" customWidth="1" min="23" max="23"/>
+    <col width="19" customWidth="1" min="24" max="24"/>
+    <col width="19" customWidth="1" min="25" max="25"/>
+    <col width="19" customWidth="1" min="26" max="26"/>
     <col width="19" customWidth="1" min="27" max="27"/>
-    <col width="20" customWidth="1" min="28" max="28"/>
-    <col width="20" customWidth="1" min="29" max="29"/>
-    <col width="20" customWidth="1" min="30" max="30"/>
-    <col width="20" customWidth="1" min="31" max="31"/>
+    <col width="19" customWidth="1" min="28" max="28"/>
+    <col width="19" customWidth="1" min="29" max="29"/>
+    <col width="19" customWidth="1" min="30" max="30"/>
+    <col width="19" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1525,16 +2044,16 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>9560554.583333334</v>
+        <v>11685765</v>
       </c>
       <c r="D2" t="n">
-        <v>8299967.5</v>
+        <v>11685765</v>
       </c>
       <c r="E2" t="n">
-        <v>11070143.33333333</v>
+        <v>11685765</v>
       </c>
       <c r="F2" t="n">
-        <v>787181.904764134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1547,16 +2066,16 @@
         <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>9876255</v>
+        <v>11109139.16666667</v>
       </c>
       <c r="D3" t="n">
-        <v>8156810.833333333</v>
+        <v>11109139.16666667</v>
       </c>
       <c r="E3" t="n">
-        <v>11624591.66666667</v>
+        <v>11109139.16666667</v>
       </c>
       <c r="F3" t="n">
-        <v>1320094.066272415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1569,16 +2088,16 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>14522038.58333333</v>
+        <v>12913730</v>
       </c>
       <c r="D4" t="n">
-        <v>11884955</v>
+        <v>12913730</v>
       </c>
       <c r="E4" t="n">
-        <v>16785449.16666666</v>
+        <v>12913730</v>
       </c>
       <c r="F4" t="n">
-        <v>1666721.90832051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1591,16 +2110,16 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>9718442.666666666</v>
+        <v>11725613.33333333</v>
       </c>
       <c r="D5" t="n">
-        <v>7536351.666666667</v>
+        <v>11725613.33333333</v>
       </c>
       <c r="E5" t="n">
-        <v>11732093.33333333</v>
+        <v>11725613.33333333</v>
       </c>
       <c r="F5" t="n">
-        <v>1236107.70400804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1613,16 +2132,16 @@
         <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>10141145.91666667</v>
+        <v>8871536.666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>8874416.666666666</v>
+        <v>8871536.666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>11344383.33333333</v>
+        <v>8871536.666666666</v>
       </c>
       <c r="F6" t="n">
-        <v>889043.7902323807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1635,16 +2154,16 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>14210538.33333333</v>
+        <v>14021428.33333333</v>
       </c>
       <c r="D7" t="n">
-        <v>11434601.66666667</v>
+        <v>14021428.33333333</v>
       </c>
       <c r="E7" t="n">
-        <v>16142670</v>
+        <v>14021428.33333333</v>
       </c>
       <c r="F7" t="n">
-        <v>1158911.984041138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1657,16 +2176,16 @@
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>9150304.166666666</v>
+        <v>9189897.5</v>
       </c>
       <c r="D8" t="n">
-        <v>7869754.166666667</v>
+        <v>9189897.5</v>
       </c>
       <c r="E8" t="n">
-        <v>11646749.16666667</v>
+        <v>9189897.5</v>
       </c>
       <c r="F8" t="n">
-        <v>1098201.838655215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1679,16 +2198,16 @@
         <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>10535506.66666667</v>
+        <v>8892477.5</v>
       </c>
       <c r="D9" t="n">
-        <v>9234517.5</v>
+        <v>8892477.5</v>
       </c>
       <c r="E9" t="n">
-        <v>12528105.83333333</v>
+        <v>8892477.5</v>
       </c>
       <c r="F9" t="n">
-        <v>1069134.341374029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1701,16 +2220,16 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>15776261.16666667</v>
+        <v>14283499.16666667</v>
       </c>
       <c r="D10" t="n">
-        <v>11503650.83333333</v>
+        <v>14283499.16666667</v>
       </c>
       <c r="E10" t="n">
-        <v>19037898.33333334</v>
+        <v>14283499.16666667</v>
       </c>
       <c r="F10" t="n">
-        <v>2465295.369675114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1723,16 +2242,16 @@
         <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>9643656</v>
+        <v>10999275</v>
       </c>
       <c r="D11" t="n">
-        <v>8183499.166666666</v>
+        <v>10999275</v>
       </c>
       <c r="E11" t="n">
-        <v>11442355</v>
+        <v>10999275</v>
       </c>
       <c r="F11" t="n">
-        <v>839377.4998693478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1745,16 +2264,16 @@
         <v>40</v>
       </c>
       <c r="C12" t="n">
-        <v>8678370.666666666</v>
+        <v>7753929.166666667</v>
       </c>
       <c r="D12" t="n">
-        <v>7290053.333333333</v>
+        <v>7753929.166666667</v>
       </c>
       <c r="E12" t="n">
-        <v>10786145.83333333</v>
+        <v>7753929.166666667</v>
       </c>
       <c r="F12" t="n">
-        <v>1129082.552526104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1767,82 +2286,148 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>10617166.16666667</v>
+        <v>9373125.833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>9063790.833333334</v>
+        <v>9373125.833333334</v>
       </c>
       <c r="E13" t="n">
-        <v>11867412.5</v>
+        <v>9373125.833333334</v>
       </c>
       <c r="F13" t="n">
-        <v>826063.1291081645</v>
-      </c>
-    </row>
-    <row r="14"/>
-    <row r="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10106200.83333333</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10106200.83333333</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10106200.83333333</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>40</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9140882.5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9140882.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9140882.5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
-          <t>Summary by Algorithm</t>
-        </is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>13375950</v>
+      </c>
+      <c r="D16" t="n">
+        <v>13375950</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13375950</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Random</t>
-        </is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>11319616.05555556</v>
+        <v>11224430</v>
       </c>
       <c r="D17" t="n">
-        <v>8156810.833333333</v>
+        <v>11224430</v>
       </c>
       <c r="E17" t="n">
-        <v>16785449.16666666</v>
+        <v>11224430</v>
       </c>
       <c r="F17" t="n">
-        <v>2618737.867805848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fuzzy</t>
-        </is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>11356708.97222222</v>
+        <v>7583337.5</v>
       </c>
       <c r="D18" t="n">
-        <v>7536351.666666667</v>
+        <v>7583337.5</v>
       </c>
       <c r="E18" t="n">
-        <v>16142670</v>
+        <v>7583337.5</v>
       </c>
       <c r="F18" t="n">
-        <v>2307039.23936453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NSGA3</t>
-        </is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>11820690.66666667</v>
+        <v>5753895</v>
       </c>
       <c r="D19" t="n">
-        <v>7869754.166666667</v>
+        <v>5753895</v>
       </c>
       <c r="E19" t="n">
-        <v>19037898.33333334</v>
+        <v>5753895</v>
       </c>
       <c r="F19" t="n">
-        <v>3309379.434867965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1865,92 +2450,140 @@
       </c>
     </row>
     <row r="21"/>
-    <row r="22"/>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>Summary by Algorithm</t>
+        </is>
+      </c>
+    </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>Average data for chart</t>
-        </is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>11902878.05555556</v>
+      </c>
+      <c r="D23" t="n">
+        <v>11109139.16666667</v>
+      </c>
+      <c r="E23" t="n">
+        <v>12913730</v>
+      </c>
+      <c r="F23" t="n">
+        <v>752547.043095282</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Algorithms</t>
+          <t>Fuzzy</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>20</v>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>11539526.11111111</v>
       </c>
       <c r="D24" t="n">
-        <v>100</v>
+        <v>8871536.666666666</v>
+      </c>
+      <c r="E24" t="n">
+        <v>14021428.33333333</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2106548.106153206</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Random</t>
+          <t>NSGA3</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>9560554.583333334</v>
       </c>
       <c r="C25" t="n">
-        <v>9876255</v>
+        <v>10788624.72222222</v>
       </c>
       <c r="D25" t="n">
-        <v>14522038.58333333</v>
+        <v>8892477.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>14283499.16666667</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2474230.547183394</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fuzzy</t>
+          <t>QUEST</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>9718442.666666666</v>
       </c>
       <c r="C26" t="n">
-        <v>10141145.91666667</v>
+        <v>9375443.333333334</v>
       </c>
       <c r="D26" t="n">
-        <v>14210538.33333333</v>
+        <v>7753929.166666667</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10999275</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1324907.901852853</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NSGA3</t>
+          <t>MQGA</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>9150304.166666666</v>
       </c>
       <c r="C27" t="n">
-        <v>10535506.66666667</v>
+        <v>10874344.44444445</v>
       </c>
       <c r="D27" t="n">
-        <v>15776261.16666667</v>
+        <v>9140882.5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>13375950</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1812269.780847061</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>QUEST</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>9643656</v>
       </c>
       <c r="C28" t="n">
-        <v>8678370.666666666</v>
+        <v>8187220.833333333</v>
       </c>
       <c r="D28" t="n">
-        <v>10617166.16666667</v>
+        <v>5753895</v>
+      </c>
+      <c r="E28" t="n">
+        <v>11224430</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2273791.929320503</v>
       </c>
     </row>
     <row r="29"/>
@@ -1958,7 +2591,7 @@
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>All data for chart</t>
+          <t>Average data for chart</t>
         </is>
       </c>
     </row>
@@ -1972,10 +2605,10 @@
         <v>20</v>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D32" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E32" t="n">
         <v>20</v>
@@ -2066,13 +2699,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9647407.5</v>
+        <v>11685765</v>
       </c>
       <c r="C33" t="n">
-        <v>9232092.5</v>
+        <v>11109139.16666667</v>
       </c>
       <c r="D33" t="n">
-        <v>8299967.5</v>
+        <v>12913730</v>
       </c>
       <c r="E33" t="n">
         <v>11070143.33333333</v>
@@ -2163,13 +2796,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11732093.33333333</v>
+        <v>11725613.33333333</v>
       </c>
       <c r="C34" t="n">
-        <v>9900646.666666666</v>
+        <v>8871536.666666666</v>
       </c>
       <c r="D34" t="n">
-        <v>9828018.333333334</v>
+        <v>14021428.33333333</v>
       </c>
       <c r="E34" t="n">
         <v>10662742.5</v>
@@ -2260,13 +2893,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>11646749.16666667</v>
+        <v>9189897.5</v>
       </c>
       <c r="C35" t="n">
-        <v>9254084.166666666</v>
+        <v>8892477.5</v>
       </c>
       <c r="D35" t="n">
-        <v>7869754.166666667</v>
+        <v>14283499.16666667</v>
       </c>
       <c r="E35" t="n">
         <v>9982789.166666666</v>
@@ -2357,13 +2990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>11442355</v>
+        <v>10999275</v>
       </c>
       <c r="C36" t="n">
-        <v>9329678.333333334</v>
+        <v>7753929.166666667</v>
       </c>
       <c r="D36" t="n">
-        <v>9788270</v>
+        <v>9373125.833333334</v>
       </c>
       <c r="E36" t="n">
         <v>9381073.333333334</v>
@@ -2445,6 +3078,411 @@
       </c>
       <c r="AE36" t="n">
         <v>11743000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>10106200.83333333</v>
+      </c>
+      <c r="C37" t="n">
+        <v>9140882.5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>13375950</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>11224430</v>
+      </c>
+      <c r="C38" t="n">
+        <v>7583337.5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5753895</v>
+      </c>
+    </row>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>All data for chart</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>20</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="n">
+        <v>100</v>
+      </c>
+      <c r="E42" t="n">
+        <v>20</v>
+      </c>
+      <c r="F42" t="n">
+        <v>20</v>
+      </c>
+      <c r="G42" t="n">
+        <v>40</v>
+      </c>
+      <c r="H42" t="n">
+        <v>40</v>
+      </c>
+      <c r="I42" t="n">
+        <v>40</v>
+      </c>
+      <c r="J42" t="n">
+        <v>40</v>
+      </c>
+      <c r="K42" t="n">
+        <v>40</v>
+      </c>
+      <c r="L42" t="n">
+        <v>100</v>
+      </c>
+      <c r="M42" t="n">
+        <v>100</v>
+      </c>
+      <c r="N42" t="n">
+        <v>100</v>
+      </c>
+      <c r="O42" t="n">
+        <v>100</v>
+      </c>
+      <c r="P42" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>11685765</v>
+      </c>
+      <c r="C43" t="n">
+        <v>11109139.16666667</v>
+      </c>
+      <c r="D43" t="n">
+        <v>12913730</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10537686.66666667</v>
+      </c>
+      <c r="F43" t="n">
+        <v>8681077.5</v>
+      </c>
+      <c r="G43" t="n">
+        <v>10085337.5</v>
+      </c>
+      <c r="H43" t="n">
+        <v>10770372.5</v>
+      </c>
+      <c r="I43" t="n">
+        <v>8843131.666666666</v>
+      </c>
+      <c r="J43" t="n">
+        <v>8422122.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>10177069.16666667</v>
+      </c>
+      <c r="L43" t="n">
+        <v>14577864.16666667</v>
+      </c>
+      <c r="M43" t="n">
+        <v>15500366.66666667</v>
+      </c>
+      <c r="N43" t="n">
+        <v>16895441.66666667</v>
+      </c>
+      <c r="O43" t="n">
+        <v>16238616.66666667</v>
+      </c>
+      <c r="P43" t="n">
+        <v>13480586.66666667</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>11725613.33333333</v>
+      </c>
+      <c r="C44" t="n">
+        <v>8871536.666666666</v>
+      </c>
+      <c r="D44" t="n">
+        <v>14021428.33333333</v>
+      </c>
+      <c r="E44" t="n">
+        <v>10659862.5</v>
+      </c>
+      <c r="F44" t="n">
+        <v>7535151.666666667</v>
+      </c>
+      <c r="G44" t="n">
+        <v>8874896.666666666</v>
+      </c>
+      <c r="H44" t="n">
+        <v>11335743.33333333</v>
+      </c>
+      <c r="I44" t="n">
+        <v>10121572.5</v>
+      </c>
+      <c r="J44" t="n">
+        <v>9053516.666666666</v>
+      </c>
+      <c r="K44" t="n">
+        <v>8985075</v>
+      </c>
+      <c r="L44" t="n">
+        <v>14024068.33333333</v>
+      </c>
+      <c r="M44" t="n">
+        <v>14843803.33333333</v>
+      </c>
+      <c r="N44" t="n">
+        <v>14607005.83333333</v>
+      </c>
+      <c r="O44" t="n">
+        <v>15155067.5</v>
+      </c>
+      <c r="P44" t="n">
+        <v>16139070</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>9189897.5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>8892477.5</v>
+      </c>
+      <c r="D45" t="n">
+        <v>14283499.16666667</v>
+      </c>
+      <c r="E45" t="n">
+        <v>10201473.33333333</v>
+      </c>
+      <c r="F45" t="n">
+        <v>8653769.166666666</v>
+      </c>
+      <c r="G45" t="n">
+        <v>10908572.5</v>
+      </c>
+      <c r="H45" t="n">
+        <v>11143214.16666667</v>
+      </c>
+      <c r="I45" t="n">
+        <v>10556158.33333333</v>
+      </c>
+      <c r="J45" t="n">
+        <v>9702000</v>
+      </c>
+      <c r="K45" t="n">
+        <v>9225770</v>
+      </c>
+      <c r="L45" t="n">
+        <v>16138476.66666667</v>
+      </c>
+      <c r="M45" t="n">
+        <v>16587670</v>
+      </c>
+      <c r="N45" t="n">
+        <v>17484122.5</v>
+      </c>
+      <c r="O45" t="n">
+        <v>18179410</v>
+      </c>
+      <c r="P45" t="n">
+        <v>15701118.33333333</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>10999275</v>
+      </c>
+      <c r="C46" t="n">
+        <v>7753929.166666667</v>
+      </c>
+      <c r="D46" t="n">
+        <v>9373125.833333334</v>
+      </c>
+      <c r="E46" t="n">
+        <v>10280670.83333333</v>
+      </c>
+      <c r="F46" t="n">
+        <v>7539889.166666667</v>
+      </c>
+      <c r="G46" t="n">
+        <v>8567651.666666666</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7848240.833333334</v>
+      </c>
+      <c r="I46" t="n">
+        <v>7519522.5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>6298769.166666667</v>
+      </c>
+      <c r="K46" t="n">
+        <v>8767335</v>
+      </c>
+      <c r="L46" t="n">
+        <v>10854342.5</v>
+      </c>
+      <c r="M46" t="n">
+        <v>11028489.16666667</v>
+      </c>
+      <c r="N46" t="n">
+        <v>9160298.333333334</v>
+      </c>
+      <c r="O46" t="n">
+        <v>10009563.33333333</v>
+      </c>
+      <c r="P46" t="n">
+        <v>10760135.83333333</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>10106200.83333333</v>
+      </c>
+      <c r="C47" t="n">
+        <v>9140882.5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>13375950</v>
+      </c>
+      <c r="E47" t="n">
+        <v>7097331.666666667</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5180350</v>
+      </c>
+      <c r="G47" t="n">
+        <v>6814082.5</v>
+      </c>
+      <c r="H47" t="n">
+        <v>6854003.333333333</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6477944.166666667</v>
+      </c>
+      <c r="J47" t="n">
+        <v>6442000.833333333</v>
+      </c>
+      <c r="K47" t="n">
+        <v>6334215</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8902555.833333332</v>
+      </c>
+      <c r="M47" t="n">
+        <v>9946747.5</v>
+      </c>
+      <c r="N47" t="n">
+        <v>9523740</v>
+      </c>
+      <c r="O47" t="n">
+        <v>9211025</v>
+      </c>
+      <c r="P47" t="n">
+        <v>8899150.833333332</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>11224430</v>
+      </c>
+      <c r="C48" t="n">
+        <v>7583337.5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5753895</v>
+      </c>
+      <c r="E48" t="n">
+        <v>10171356.66666667</v>
+      </c>
+      <c r="F48" t="n">
+        <v>6228463.333333333</v>
+      </c>
+      <c r="G48" t="n">
+        <v>8462701.666666666</v>
+      </c>
+      <c r="H48" t="n">
+        <v>7499436.666666667</v>
+      </c>
+      <c r="I48" t="n">
+        <v>8605194.166666666</v>
+      </c>
+      <c r="J48" t="n">
+        <v>7443145.833333333</v>
+      </c>
+      <c r="K48" t="n">
+        <v>8048187.5</v>
+      </c>
+      <c r="L48" t="n">
+        <v>5750535</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5856705</v>
+      </c>
+      <c r="N48" t="n">
+        <v>6203080</v>
+      </c>
+      <c r="O48" t="n">
+        <v>5912830</v>
+      </c>
+      <c r="P48" t="n">
+        <v>6007540</v>
       </c>
     </row>
   </sheetData>
@@ -2458,7 +3496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE36"/>
+  <dimension ref="A1:AE48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:D9"/>
@@ -2469,7 +3507,7 @@
     <col width="24" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="5"/>
+    <col width="7" customWidth="1" min="4" max="5"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
@@ -2541,16 +3579,16 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>37756</v>
+        <v>46939</v>
       </c>
       <c r="D2" t="n">
-        <v>33626</v>
+        <v>46939</v>
       </c>
       <c r="E2" t="n">
-        <v>43718</v>
+        <v>46939</v>
       </c>
       <c r="F2" t="n">
-        <v>3024.93094136048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2563,16 +3601,16 @@
         <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>37027.5</v>
+        <v>41711</v>
       </c>
       <c r="D3" t="n">
-        <v>29989</v>
+        <v>41711</v>
       </c>
       <c r="E3" t="n">
-        <v>44815</v>
+        <v>41711</v>
       </c>
       <c r="F3" t="n">
-        <v>5604.694572409811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2585,16 +3623,16 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>49683.9</v>
+        <v>43415</v>
       </c>
       <c r="D4" t="n">
-        <v>40067</v>
+        <v>43415</v>
       </c>
       <c r="E4" t="n">
-        <v>58826</v>
+        <v>43415</v>
       </c>
       <c r="F4" t="n">
-        <v>6585.423865629304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2607,16 +3645,16 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>38023.8</v>
+        <v>46324</v>
       </c>
       <c r="D5" t="n">
-        <v>28902</v>
+        <v>46324</v>
       </c>
       <c r="E5" t="n">
-        <v>46351</v>
+        <v>46324</v>
       </c>
       <c r="F5" t="n">
-        <v>5150.834996386508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2629,16 +3667,16 @@
         <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>37752.5</v>
+        <v>32353</v>
       </c>
       <c r="D6" t="n">
-        <v>32365</v>
+        <v>32353</v>
       </c>
       <c r="E6" t="n">
-        <v>42522</v>
+        <v>32353</v>
       </c>
       <c r="F6" t="n">
-        <v>3652.271902528616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2651,16 +3689,16 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>48036.9</v>
+        <v>47606</v>
       </c>
       <c r="D7" t="n">
-        <v>37382</v>
+        <v>47606</v>
       </c>
       <c r="E7" t="n">
-        <v>55935</v>
+        <v>47606</v>
       </c>
       <c r="F7" t="n">
-        <v>4499.855874358645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2673,16 +3711,16 @@
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>36060.9</v>
+        <v>36493</v>
       </c>
       <c r="D8" t="n">
-        <v>31469</v>
+        <v>36493</v>
       </c>
       <c r="E8" t="n">
-        <v>46560</v>
+        <v>36493</v>
       </c>
       <c r="F8" t="n">
-        <v>4410.228825129145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2695,16 +3733,16 @@
         <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>39936.3</v>
+        <v>32239</v>
       </c>
       <c r="D9" t="n">
-        <v>34787</v>
+        <v>32239</v>
       </c>
       <c r="E9" t="n">
-        <v>48260</v>
+        <v>32239</v>
       </c>
       <c r="F9" t="n">
-        <v>4396.238097510189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2717,16 +3755,16 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>54477.8</v>
+        <v>49508</v>
       </c>
       <c r="D10" t="n">
-        <v>38734</v>
+        <v>49508</v>
       </c>
       <c r="E10" t="n">
-        <v>66498</v>
+        <v>49508</v>
       </c>
       <c r="F10" t="n">
-        <v>9110.267798478813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2739,16 +3777,16 @@
         <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>37927.5</v>
+        <v>43874</v>
       </c>
       <c r="D11" t="n">
-        <v>31682</v>
+        <v>43874</v>
       </c>
       <c r="E11" t="n">
-        <v>45076</v>
+        <v>43874</v>
       </c>
       <c r="F11" t="n">
-        <v>3435.720513953368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2761,16 +3799,16 @@
         <v>40</v>
       </c>
       <c r="C12" t="n">
-        <v>33218.1</v>
+        <v>29462</v>
       </c>
       <c r="D12" t="n">
-        <v>27274</v>
+        <v>29462</v>
       </c>
       <c r="E12" t="n">
-        <v>41128</v>
+        <v>29462</v>
       </c>
       <c r="F12" t="n">
-        <v>4460.157675463952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2783,82 +3821,148 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>35557</v>
+        <v>29754</v>
       </c>
       <c r="D13" t="n">
-        <v>28665</v>
+        <v>29754</v>
       </c>
       <c r="E13" t="n">
-        <v>41213</v>
+        <v>29754</v>
       </c>
       <c r="F13" t="n">
-        <v>3734.558688787739</v>
-      </c>
-    </row>
-    <row r="14"/>
-    <row r="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
+        <v>39488</v>
+      </c>
+      <c r="D14" t="n">
+        <v>39488</v>
+      </c>
+      <c r="E14" t="n">
+        <v>39488</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>40</v>
+      </c>
+      <c r="C15" t="n">
+        <v>32699</v>
+      </c>
+      <c r="D15" t="n">
+        <v>32699</v>
+      </c>
+      <c r="E15" t="n">
+        <v>32699</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
-          <t>Summary by Algorithm</t>
-        </is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>45116</v>
+      </c>
+      <c r="D16" t="n">
+        <v>45116</v>
+      </c>
+      <c r="E16" t="n">
+        <v>45116</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Random</t>
-        </is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>41489.13333333333</v>
+        <v>44665</v>
       </c>
       <c r="D17" t="n">
-        <v>29989</v>
+        <v>44665</v>
       </c>
       <c r="E17" t="n">
-        <v>58826</v>
+        <v>44665</v>
       </c>
       <c r="F17" t="n">
-        <v>7851.268966366024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fuzzy</t>
-        </is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>41271.06666666667</v>
+        <v>28246</v>
       </c>
       <c r="D18" t="n">
-        <v>28902</v>
+        <v>28246</v>
       </c>
       <c r="E18" t="n">
-        <v>55935</v>
+        <v>28246</v>
       </c>
       <c r="F18" t="n">
-        <v>6552.873338891539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NSGA3</t>
-        </is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>43491.66666666666</v>
+        <v>21619</v>
       </c>
       <c r="D19" t="n">
-        <v>31469</v>
+        <v>21619</v>
       </c>
       <c r="E19" t="n">
-        <v>66498</v>
+        <v>21619</v>
       </c>
       <c r="F19" t="n">
-        <v>10170.64498227893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2881,92 +3985,140 @@
       </c>
     </row>
     <row r="21"/>
-    <row r="22"/>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>Summary by Algorithm</t>
+        </is>
+      </c>
+    </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>Average data for chart</t>
-        </is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>44021.66666666666</v>
+      </c>
+      <c r="D23" t="n">
+        <v>41711</v>
+      </c>
+      <c r="E23" t="n">
+        <v>46939</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2177.005486646482</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Algorithms</t>
+          <t>Fuzzy</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>20</v>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>42094.33333333334</v>
       </c>
       <c r="D24" t="n">
-        <v>100</v>
+        <v>32353</v>
+      </c>
+      <c r="E24" t="n">
+        <v>47606</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6908.017676745061</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Random</t>
+          <t>NSGA3</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>37756</v>
       </c>
       <c r="C25" t="n">
-        <v>37027.5</v>
+        <v>39413.33333333334</v>
       </c>
       <c r="D25" t="n">
-        <v>49683.9</v>
+        <v>32239</v>
+      </c>
+      <c r="E25" t="n">
+        <v>49508</v>
+      </c>
+      <c r="F25" t="n">
+        <v>7346.239415888618</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fuzzy</t>
+          <t>QUEST</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>38023.8</v>
       </c>
       <c r="C26" t="n">
-        <v>37752.5</v>
+        <v>34363.33333333334</v>
       </c>
       <c r="D26" t="n">
-        <v>48036.9</v>
+        <v>29462</v>
+      </c>
+      <c r="E26" t="n">
+        <v>43874</v>
+      </c>
+      <c r="F26" t="n">
+        <v>6726.113356827172</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NSGA3</t>
+          <t>MQGA</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>36060.9</v>
       </c>
       <c r="C27" t="n">
-        <v>39936.3</v>
+        <v>39101</v>
       </c>
       <c r="D27" t="n">
-        <v>54477.8</v>
+        <v>32699</v>
+      </c>
+      <c r="E27" t="n">
+        <v>45116</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5076.599846353856</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>QUEST</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>37927.5</v>
       </c>
       <c r="C28" t="n">
-        <v>33218.1</v>
+        <v>31510</v>
       </c>
       <c r="D28" t="n">
-        <v>35557</v>
+        <v>21619</v>
+      </c>
+      <c r="E28" t="n">
+        <v>44665</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9687.442077246191</v>
       </c>
     </row>
     <row r="29"/>
@@ -2974,7 +4126,7 @@
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>All data for chart</t>
+          <t>Average data for chart</t>
         </is>
       </c>
     </row>
@@ -2988,10 +4140,10 @@
         <v>20</v>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D32" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E32" t="n">
         <v>20</v>
@@ -3082,13 +4234,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>38034</v>
+        <v>46939</v>
       </c>
       <c r="C33" t="n">
-        <v>36099</v>
+        <v>41711</v>
       </c>
       <c r="D33" t="n">
-        <v>33626</v>
+        <v>43415</v>
       </c>
       <c r="E33" t="n">
         <v>43718</v>
@@ -3179,13 +4331,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46351</v>
+        <v>46324</v>
       </c>
       <c r="C34" t="n">
-        <v>38614</v>
+        <v>32353</v>
       </c>
       <c r="D34" t="n">
-        <v>39125</v>
+        <v>47606</v>
       </c>
       <c r="E34" t="n">
         <v>41752</v>
@@ -3276,13 +4428,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46560</v>
+        <v>36493</v>
       </c>
       <c r="C35" t="n">
-        <v>35980</v>
+        <v>32239</v>
       </c>
       <c r="D35" t="n">
-        <v>31497</v>
+        <v>49508</v>
       </c>
       <c r="E35" t="n">
         <v>39456</v>
@@ -3373,13 +4525,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>45076</v>
+        <v>43874</v>
       </c>
       <c r="C36" t="n">
-        <v>36142</v>
+        <v>29462</v>
       </c>
       <c r="D36" t="n">
-        <v>39298</v>
+        <v>29754</v>
       </c>
       <c r="E36" t="n">
         <v>37480</v>
@@ -3461,6 +4613,411 @@
       </c>
       <c r="AE36" t="n">
         <v>40437</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>39488</v>
+      </c>
+      <c r="C37" t="n">
+        <v>32699</v>
+      </c>
+      <c r="D37" t="n">
+        <v>45116</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>44665</v>
+      </c>
+      <c r="C38" t="n">
+        <v>28246</v>
+      </c>
+      <c r="D38" t="n">
+        <v>21619</v>
+      </c>
+    </row>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>All data for chart</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>20</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="n">
+        <v>100</v>
+      </c>
+      <c r="E42" t="n">
+        <v>20</v>
+      </c>
+      <c r="F42" t="n">
+        <v>20</v>
+      </c>
+      <c r="G42" t="n">
+        <v>40</v>
+      </c>
+      <c r="H42" t="n">
+        <v>40</v>
+      </c>
+      <c r="I42" t="n">
+        <v>40</v>
+      </c>
+      <c r="J42" t="n">
+        <v>40</v>
+      </c>
+      <c r="K42" t="n">
+        <v>40</v>
+      </c>
+      <c r="L42" t="n">
+        <v>100</v>
+      </c>
+      <c r="M42" t="n">
+        <v>100</v>
+      </c>
+      <c r="N42" t="n">
+        <v>100</v>
+      </c>
+      <c r="O42" t="n">
+        <v>100</v>
+      </c>
+      <c r="P42" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>46939</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41711</v>
+      </c>
+      <c r="D43" t="n">
+        <v>43415</v>
+      </c>
+      <c r="E43" t="n">
+        <v>41667</v>
+      </c>
+      <c r="F43" t="n">
+        <v>34228</v>
+      </c>
+      <c r="G43" t="n">
+        <v>38680</v>
+      </c>
+      <c r="H43" t="n">
+        <v>40356</v>
+      </c>
+      <c r="I43" t="n">
+        <v>33714</v>
+      </c>
+      <c r="J43" t="n">
+        <v>31804</v>
+      </c>
+      <c r="K43" t="n">
+        <v>38734</v>
+      </c>
+      <c r="L43" t="n">
+        <v>49855</v>
+      </c>
+      <c r="M43" t="n">
+        <v>53324</v>
+      </c>
+      <c r="N43" t="n">
+        <v>58637</v>
+      </c>
+      <c r="O43" t="n">
+        <v>54701</v>
+      </c>
+      <c r="P43" t="n">
+        <v>47646</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>46324</v>
+      </c>
+      <c r="C44" t="n">
+        <v>32353</v>
+      </c>
+      <c r="D44" t="n">
+        <v>47606</v>
+      </c>
+      <c r="E44" t="n">
+        <v>41740</v>
+      </c>
+      <c r="F44" t="n">
+        <v>28897</v>
+      </c>
+      <c r="G44" t="n">
+        <v>32367</v>
+      </c>
+      <c r="H44" t="n">
+        <v>42327</v>
+      </c>
+      <c r="I44" t="n">
+        <v>37650</v>
+      </c>
+      <c r="J44" t="n">
+        <v>33813</v>
+      </c>
+      <c r="K44" t="n">
+        <v>32977</v>
+      </c>
+      <c r="L44" t="n">
+        <v>47617</v>
+      </c>
+      <c r="M44" t="n">
+        <v>50584</v>
+      </c>
+      <c r="N44" t="n">
+        <v>49318</v>
+      </c>
+      <c r="O44" t="n">
+        <v>51194</v>
+      </c>
+      <c r="P44" t="n">
+        <v>55920</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>36493</v>
+      </c>
+      <c r="C45" t="n">
+        <v>32239</v>
+      </c>
+      <c r="D45" t="n">
+        <v>49508</v>
+      </c>
+      <c r="E45" t="n">
+        <v>39852</v>
+      </c>
+      <c r="F45" t="n">
+        <v>34161</v>
+      </c>
+      <c r="G45" t="n">
+        <v>40936</v>
+      </c>
+      <c r="H45" t="n">
+        <v>42406</v>
+      </c>
+      <c r="I45" t="n">
+        <v>39556</v>
+      </c>
+      <c r="J45" t="n">
+        <v>37189</v>
+      </c>
+      <c r="K45" t="n">
+        <v>35416</v>
+      </c>
+      <c r="L45" t="n">
+        <v>56946</v>
+      </c>
+      <c r="M45" t="n">
+        <v>58492</v>
+      </c>
+      <c r="N45" t="n">
+        <v>61450</v>
+      </c>
+      <c r="O45" t="n">
+        <v>62376</v>
+      </c>
+      <c r="P45" t="n">
+        <v>54166</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>43874</v>
+      </c>
+      <c r="C46" t="n">
+        <v>29462</v>
+      </c>
+      <c r="D46" t="n">
+        <v>29754</v>
+      </c>
+      <c r="E46" t="n">
+        <v>40012</v>
+      </c>
+      <c r="F46" t="n">
+        <v>29301</v>
+      </c>
+      <c r="G46" t="n">
+        <v>32635</v>
+      </c>
+      <c r="H46" t="n">
+        <v>29444</v>
+      </c>
+      <c r="I46" t="n">
+        <v>28437</v>
+      </c>
+      <c r="J46" t="n">
+        <v>24075</v>
+      </c>
+      <c r="K46" t="n">
+        <v>32970</v>
+      </c>
+      <c r="L46" t="n">
+        <v>36421</v>
+      </c>
+      <c r="M46" t="n">
+        <v>36612</v>
+      </c>
+      <c r="N46" t="n">
+        <v>29839</v>
+      </c>
+      <c r="O46" t="n">
+        <v>33688</v>
+      </c>
+      <c r="P46" t="n">
+        <v>36027</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>39488</v>
+      </c>
+      <c r="C47" t="n">
+        <v>32699</v>
+      </c>
+      <c r="D47" t="n">
+        <v>45116</v>
+      </c>
+      <c r="E47" t="n">
+        <v>28506</v>
+      </c>
+      <c r="F47" t="n">
+        <v>20363</v>
+      </c>
+      <c r="G47" t="n">
+        <v>25558</v>
+      </c>
+      <c r="H47" t="n">
+        <v>24887</v>
+      </c>
+      <c r="I47" t="n">
+        <v>24271</v>
+      </c>
+      <c r="J47" t="n">
+        <v>24451</v>
+      </c>
+      <c r="K47" t="n">
+        <v>23596</v>
+      </c>
+      <c r="L47" t="n">
+        <v>28637</v>
+      </c>
+      <c r="M47" t="n">
+        <v>32908</v>
+      </c>
+      <c r="N47" t="n">
+        <v>31037</v>
+      </c>
+      <c r="O47" t="n">
+        <v>29797</v>
+      </c>
+      <c r="P47" t="n">
+        <v>28258</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>44665</v>
+      </c>
+      <c r="C48" t="n">
+        <v>28246</v>
+      </c>
+      <c r="D48" t="n">
+        <v>21619</v>
+      </c>
+      <c r="E48" t="n">
+        <v>39920</v>
+      </c>
+      <c r="F48" t="n">
+        <v>24160</v>
+      </c>
+      <c r="G48" t="n">
+        <v>32405</v>
+      </c>
+      <c r="H48" t="n">
+        <v>28215</v>
+      </c>
+      <c r="I48" t="n">
+        <v>32766</v>
+      </c>
+      <c r="J48" t="n">
+        <v>28454</v>
+      </c>
+      <c r="K48" t="n">
+        <v>30717</v>
+      </c>
+      <c r="L48" t="n">
+        <v>21605</v>
+      </c>
+      <c r="M48" t="n">
+        <v>21954</v>
+      </c>
+      <c r="N48" t="n">
+        <v>23337</v>
+      </c>
+      <c r="O48" t="n">
+        <v>22037</v>
+      </c>
+      <c r="P48" t="n">
+        <v>22568</v>
       </c>
     </row>
   </sheetData>
@@ -3474,7 +5031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE36"/>
+  <dimension ref="A1:AE48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3484,10 +5041,10 @@
   <cols>
     <col width="24" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="5"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="21" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
@@ -3557,16 +5114,16 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3601,16 +5158,16 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3623,16 +5180,16 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3711,16 +5268,16 @@
         <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3733,16 +5290,16 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4898979485566357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3811,70 +5368,136 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14"/>
-    <row r="15"/>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>40</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
-          <t>Summary by Algorithm</t>
-        </is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Random</t>
-        </is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fuzzy</t>
-        </is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9666666666666667</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1795054935711501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NSGA3</t>
-        </is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7666666666666667</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4229525846816506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3897,34 +5520,58 @@
       </c>
     </row>
     <row r="21"/>
-    <row r="22"/>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>Summary by Algorithm</t>
+        </is>
+      </c>
+    </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>Average data for chart</t>
-        </is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Algorithms</t>
+          <t>Fuzzy</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>20</v>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
-      </c>
-      <c r="D24" t="n">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Random</t>
+          <t>NSGA3</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -3933,14 +5580,20 @@
       <c r="C25" t="n">
         <v>1</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.8</v>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fuzzy</t>
+          <t>QUEST</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -3949,30 +5602,42 @@
       <c r="C26" t="n">
         <v>1</v>
       </c>
-      <c r="D26" t="n">
-        <v>1</v>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NSGA3</t>
+          <t>MQGA</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.4</v>
+        <v>1</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>QUEST</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -3981,8 +5646,14 @@
       <c r="C28" t="n">
         <v>1</v>
       </c>
-      <c r="D28" t="n">
-        <v>1</v>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29"/>
@@ -3990,7 +5661,7 @@
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>All data for chart</t>
+          <t>Average data for chart</t>
         </is>
       </c>
     </row>
@@ -4004,10 +5675,10 @@
         <v>20</v>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D32" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E32" t="n">
         <v>20</v>
@@ -4097,13 +5768,13 @@
           <t>Random</t>
         </is>
       </c>
-      <c r="B33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" t="b">
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
         <v>1</v>
       </c>
       <c r="E33" t="b">
@@ -4194,13 +5865,13 @@
           <t>Fuzzy</t>
         </is>
       </c>
-      <c r="B34" t="b">
-        <v>1</v>
-      </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" t="b">
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
         <v>1</v>
       </c>
       <c r="E34" t="b">
@@ -4291,13 +5962,13 @@
           <t>NSGA3</t>
         </is>
       </c>
-      <c r="B35" t="b">
-        <v>1</v>
-      </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" t="b">
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
         <v>1</v>
       </c>
       <c r="E35" t="b">
@@ -4388,13 +6059,13 @@
           <t>QUEST</t>
         </is>
       </c>
-      <c r="B36" t="b">
-        <v>1</v>
-      </c>
-      <c r="C36" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" t="b">
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
         <v>1</v>
       </c>
       <c r="E36" t="b">
@@ -4476,6 +6147,411 @@
         <v>1</v>
       </c>
       <c r="AE36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>All data for chart</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>20</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="n">
+        <v>100</v>
+      </c>
+      <c r="E42" t="n">
+        <v>20</v>
+      </c>
+      <c r="F42" t="n">
+        <v>20</v>
+      </c>
+      <c r="G42" t="n">
+        <v>40</v>
+      </c>
+      <c r="H42" t="n">
+        <v>40</v>
+      </c>
+      <c r="I42" t="n">
+        <v>40</v>
+      </c>
+      <c r="J42" t="n">
+        <v>40</v>
+      </c>
+      <c r="K42" t="n">
+        <v>40</v>
+      </c>
+      <c r="L42" t="n">
+        <v>100</v>
+      </c>
+      <c r="M42" t="n">
+        <v>100</v>
+      </c>
+      <c r="N42" t="n">
+        <v>100</v>
+      </c>
+      <c r="O42" t="n">
+        <v>100</v>
+      </c>
+      <c r="P42" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" t="b">
+        <v>1</v>
+      </c>
+      <c r="N43" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43" t="b">
+        <v>1</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" t="b">
+        <v>1</v>
+      </c>
+      <c r="N44" t="b">
+        <v>1</v>
+      </c>
+      <c r="O44" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="b">
+        <v>0</v>
+      </c>
+      <c r="O45" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="b">
+        <v>1</v>
+      </c>
+      <c r="M46" t="b">
+        <v>1</v>
+      </c>
+      <c r="N46" t="b">
+        <v>1</v>
+      </c>
+      <c r="O46" t="b">
+        <v>1</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47" t="b">
+        <v>1</v>
+      </c>
+      <c r="N47" t="b">
+        <v>1</v>
+      </c>
+      <c r="O47" t="b">
+        <v>1</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="b">
+        <v>1</v>
+      </c>
+      <c r="M48" t="b">
+        <v>1</v>
+      </c>
+      <c r="N48" t="b">
+        <v>1</v>
+      </c>
+      <c r="O48" t="b">
+        <v>1</v>
+      </c>
+      <c r="P48" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4490,7 +6566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE36"/>
+  <dimension ref="A1:AE48"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
@@ -4499,9 +6575,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="24" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="5"/>
+    <col width="9" customWidth="1" min="4" max="5"/>
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
@@ -4509,16 +6585,16 @@
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
     <col width="9" customWidth="1" min="13" max="13"/>
-    <col width="8" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="9" customWidth="1" min="14" max="14"/>
+    <col width="9" customWidth="1" min="15" max="15"/>
+    <col width="9" customWidth="1" min="16" max="16"/>
     <col width="8" customWidth="1" min="17" max="17"/>
     <col width="8" customWidth="1" min="18" max="18"/>
     <col width="8" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="9" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="9" customWidth="1" min="22" max="22"/>
     <col width="9" customWidth="1" min="23" max="23"/>
     <col width="9" customWidth="1" min="24" max="24"/>
@@ -4573,16 +6649,16 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>4375.14</v>
+        <v>5002.7</v>
       </c>
       <c r="D2" t="n">
-        <v>2547.4</v>
+        <v>5002.7</v>
       </c>
       <c r="E2" t="n">
-        <v>5613.5</v>
+        <v>5002.7</v>
       </c>
       <c r="F2" t="n">
-        <v>877.7065366054875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4595,16 +6671,16 @@
         <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>9064.76</v>
+        <v>9554</v>
       </c>
       <c r="D3" t="n">
-        <v>7815.5</v>
+        <v>9554</v>
       </c>
       <c r="E3" t="n">
-        <v>10469.6</v>
+        <v>9554</v>
       </c>
       <c r="F3" t="n">
-        <v>872.1314593569023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4617,16 +6693,16 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>23535.73</v>
+        <v>23359.8</v>
       </c>
       <c r="D4" t="n">
-        <v>21320.7</v>
+        <v>23359.8</v>
       </c>
       <c r="E4" t="n">
-        <v>26315.4</v>
+        <v>23359.8</v>
       </c>
       <c r="F4" t="n">
-        <v>1612.394357500671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4639,16 +6715,16 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>4610.47</v>
+        <v>4771.3</v>
       </c>
       <c r="D5" t="n">
-        <v>3147.7</v>
+        <v>4771.3</v>
       </c>
       <c r="E5" t="n">
-        <v>5486.4</v>
+        <v>4771.3</v>
       </c>
       <c r="F5" t="n">
-        <v>602.3559762300031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4661,16 +6737,16 @@
         <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>8951.870000000001</v>
+        <v>9140.200000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>7612.8</v>
+        <v>9140.200000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>9913.5</v>
+        <v>9140.200000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>718.8635142361866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4683,16 +6759,16 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>23399.48</v>
+        <v>22716.5</v>
       </c>
       <c r="D7" t="n">
-        <v>21419</v>
+        <v>22716.5</v>
       </c>
       <c r="E7" t="n">
-        <v>25048.6</v>
+        <v>22716.5</v>
       </c>
       <c r="F7" t="n">
-        <v>1073.779663431935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4705,16 +6781,16 @@
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>4544.309999999999</v>
+        <v>4619.7</v>
       </c>
       <c r="D8" t="n">
-        <v>3107.9</v>
+        <v>4619.7</v>
       </c>
       <c r="E8" t="n">
-        <v>5765.9</v>
+        <v>4619.7</v>
       </c>
       <c r="F8" t="n">
-        <v>687.4181688753941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4727,16 +6803,16 @@
         <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>8811.57</v>
+        <v>8803.700000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>7368.7</v>
+        <v>8803.700000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>9785.1</v>
+        <v>8803.700000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>717.9152986947695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4749,16 +6825,16 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>23353.63</v>
+        <v>22931.4</v>
       </c>
       <c r="D10" t="n">
-        <v>21522.6</v>
+        <v>22931.4</v>
       </c>
       <c r="E10" t="n">
-        <v>25712</v>
+        <v>22931.4</v>
       </c>
       <c r="F10" t="n">
-        <v>1265.591051682968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4771,16 +6847,16 @@
         <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>3665.5</v>
+        <v>3345</v>
       </c>
       <c r="D11" t="n">
-        <v>2181.5</v>
+        <v>3345</v>
       </c>
       <c r="E11" t="n">
-        <v>4710.6</v>
+        <v>3345</v>
       </c>
       <c r="F11" t="n">
-        <v>780.7917955511572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4793,16 +6869,16 @@
         <v>40</v>
       </c>
       <c r="C12" t="n">
-        <v>8371.42</v>
+        <v>7542.4</v>
       </c>
       <c r="D12" t="n">
-        <v>7017.9</v>
+        <v>7542.4</v>
       </c>
       <c r="E12" t="n">
-        <v>9635.5</v>
+        <v>7542.4</v>
       </c>
       <c r="F12" t="n">
-        <v>763.8667564438186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4815,82 +6891,148 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>22893.29</v>
+        <v>21982.4</v>
       </c>
       <c r="D13" t="n">
-        <v>20525.3</v>
+        <v>21982.4</v>
       </c>
       <c r="E13" t="n">
-        <v>24707.1</v>
+        <v>21982.4</v>
       </c>
       <c r="F13" t="n">
-        <v>1384.674911630886</v>
-      </c>
-    </row>
-    <row r="14"/>
-    <row r="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4515.7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4515.7</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4515.7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>40</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9220.4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9220.4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9220.4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
-          <t>Summary by Algorithm</t>
-        </is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>24507</v>
+      </c>
+      <c r="D16" t="n">
+        <v>24507</v>
+      </c>
+      <c r="E16" t="n">
+        <v>24507</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Random</t>
-        </is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>12325.21</v>
+        <v>2223</v>
       </c>
       <c r="D17" t="n">
-        <v>2547.4</v>
+        <v>2223</v>
       </c>
       <c r="E17" t="n">
-        <v>26315.4</v>
+        <v>2223</v>
       </c>
       <c r="F17" t="n">
-        <v>8238.946200591028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fuzzy</t>
-        </is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>12320.60666666667</v>
+        <v>4607.2</v>
       </c>
       <c r="D18" t="n">
-        <v>3147.7</v>
+        <v>4607.2</v>
       </c>
       <c r="E18" t="n">
-        <v>25048.6</v>
+        <v>4607.2</v>
       </c>
       <c r="F18" t="n">
-        <v>8074.004143419518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NSGA3</t>
-        </is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>12236.50333333333</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>3107.9</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>25712</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>8105.146076474433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4913,92 +7055,140 @@
       </c>
     </row>
     <row r="21"/>
-    <row r="22"/>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>Summary by Algorithm</t>
+        </is>
+      </c>
+    </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>Average data for chart</t>
-        </is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>12638.83333333333</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5002.7</v>
+      </c>
+      <c r="E23" t="n">
+        <v>23359.8</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7805.251549366547</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Algorithms</t>
+          <t>Fuzzy</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>20</v>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>12209.33333333333</v>
       </c>
       <c r="D24" t="n">
-        <v>100</v>
+        <v>4771.3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>22716.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7640.778115843671</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Random</t>
+          <t>NSGA3</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>4375.14</v>
       </c>
       <c r="C25" t="n">
-        <v>9064.76</v>
+        <v>12118.26666666667</v>
       </c>
       <c r="D25" t="n">
-        <v>23535.73</v>
+        <v>4619.7</v>
+      </c>
+      <c r="E25" t="n">
+        <v>22931.4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>7834.51140205239</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fuzzy</t>
+          <t>QUEST</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>4610.47</v>
       </c>
       <c r="C26" t="n">
-        <v>8951.870000000001</v>
+        <v>10956.6</v>
       </c>
       <c r="D26" t="n">
-        <v>23399.48</v>
+        <v>3345</v>
+      </c>
+      <c r="E26" t="n">
+        <v>21982.4</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7982.511756750921</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NSGA3</t>
+          <t>MQGA</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>4544.309999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>8811.57</v>
+        <v>12747.7</v>
       </c>
       <c r="D27" t="n">
-        <v>23353.63</v>
+        <v>4515.7</v>
+      </c>
+      <c r="E27" t="n">
+        <v>24507</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8534.026126434501</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>QUEST</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>3665.5</v>
       </c>
       <c r="C28" t="n">
-        <v>8371.42</v>
+        <v>2276.733333333333</v>
       </c>
       <c r="D28" t="n">
-        <v>22893.29</v>
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4607.2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1881.265250362697</v>
       </c>
     </row>
     <row r="29"/>
@@ -5006,7 +7196,7 @@
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>All data for chart</t>
+          <t>Average data for chart</t>
         </is>
       </c>
     </row>
@@ -5020,10 +7210,10 @@
         <v>20</v>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D32" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E32" t="n">
         <v>20</v>
@@ -5114,13 +7304,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4418.4</v>
+        <v>5002.7</v>
       </c>
       <c r="C33" t="n">
-        <v>4329.1</v>
+        <v>9554</v>
       </c>
       <c r="D33" t="n">
-        <v>2547.4</v>
+        <v>23359.8</v>
       </c>
       <c r="E33" t="n">
         <v>5487.2</v>
@@ -5214,10 +7404,10 @@
         <v>4771.3</v>
       </c>
       <c r="C34" t="n">
-        <v>5001.3</v>
+        <v>9140.200000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>3147.7</v>
+        <v>22716.5</v>
       </c>
       <c r="E34" t="n">
         <v>5100.4</v>
@@ -5308,13 +7498,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4959.3</v>
+        <v>4619.7</v>
       </c>
       <c r="C35" t="n">
-        <v>4781.4</v>
+        <v>8803.700000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>3107.9</v>
+        <v>22931.4</v>
       </c>
       <c r="E35" t="n">
         <v>5228.9</v>
@@ -5405,13 +7595,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4061</v>
+        <v>3345</v>
       </c>
       <c r="C36" t="n">
-        <v>4710.6</v>
+        <v>7542.4</v>
       </c>
       <c r="D36" t="n">
-        <v>2181.5</v>
+        <v>21982.4</v>
       </c>
       <c r="E36" t="n">
         <v>2999.7</v>
@@ -5493,6 +7683,411 @@
       </c>
       <c r="AE36" t="n">
         <v>21905.3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>4515.7</v>
+      </c>
+      <c r="C37" t="n">
+        <v>9220.4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>24507</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2223</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4607.2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>All data for chart</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>20</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="n">
+        <v>100</v>
+      </c>
+      <c r="E42" t="n">
+        <v>20</v>
+      </c>
+      <c r="F42" t="n">
+        <v>20</v>
+      </c>
+      <c r="G42" t="n">
+        <v>40</v>
+      </c>
+      <c r="H42" t="n">
+        <v>40</v>
+      </c>
+      <c r="I42" t="n">
+        <v>40</v>
+      </c>
+      <c r="J42" t="n">
+        <v>40</v>
+      </c>
+      <c r="K42" t="n">
+        <v>40</v>
+      </c>
+      <c r="L42" t="n">
+        <v>100</v>
+      </c>
+      <c r="M42" t="n">
+        <v>100</v>
+      </c>
+      <c r="N42" t="n">
+        <v>100</v>
+      </c>
+      <c r="O42" t="n">
+        <v>100</v>
+      </c>
+      <c r="P42" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>5002.7</v>
+      </c>
+      <c r="C43" t="n">
+        <v>9554</v>
+      </c>
+      <c r="D43" t="n">
+        <v>23359.8</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5120.4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4338.1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>8939.5</v>
+      </c>
+      <c r="H43" t="n">
+        <v>8807.4</v>
+      </c>
+      <c r="I43" t="n">
+        <v>8983.1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>7674.4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>9361.799999999999</v>
+      </c>
+      <c r="L43" t="n">
+        <v>21845.5</v>
+      </c>
+      <c r="M43" t="n">
+        <v>24027.9</v>
+      </c>
+      <c r="N43" t="n">
+        <v>23902.9</v>
+      </c>
+      <c r="O43" t="n">
+        <v>26115.8</v>
+      </c>
+      <c r="P43" t="n">
+        <v>23471</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>4771.3</v>
+      </c>
+      <c r="C44" t="n">
+        <v>9140.200000000001</v>
+      </c>
+      <c r="D44" t="n">
+        <v>22716.5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5100.4</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4624.3</v>
+      </c>
+      <c r="G44" t="n">
+        <v>9140.200000000001</v>
+      </c>
+      <c r="H44" t="n">
+        <v>9608.1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>9033.1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>7612.8</v>
+      </c>
+      <c r="K44" t="n">
+        <v>8952.9</v>
+      </c>
+      <c r="L44" t="n">
+        <v>22716.5</v>
+      </c>
+      <c r="M44" t="n">
+        <v>23602.2</v>
+      </c>
+      <c r="N44" t="n">
+        <v>24187.5</v>
+      </c>
+      <c r="O44" t="n">
+        <v>25048.6</v>
+      </c>
+      <c r="P44" t="n">
+        <v>23759.8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>4619.7</v>
+      </c>
+      <c r="C45" t="n">
+        <v>8803.700000000001</v>
+      </c>
+      <c r="D45" t="n">
+        <v>22931.4</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4622.7</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5044.1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>8351.799999999999</v>
+      </c>
+      <c r="H45" t="n">
+        <v>9205.6</v>
+      </c>
+      <c r="I45" t="n">
+        <v>9202.6</v>
+      </c>
+      <c r="J45" t="n">
+        <v>7388.1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>7788.2</v>
+      </c>
+      <c r="L45" t="n">
+        <v>21893.7</v>
+      </c>
+      <c r="M45" t="n">
+        <v>23494.9</v>
+      </c>
+      <c r="N45" t="n">
+        <v>24316.1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>24471.9</v>
+      </c>
+      <c r="P45" t="n">
+        <v>23013.4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>3345</v>
+      </c>
+      <c r="C46" t="n">
+        <v>7542.4</v>
+      </c>
+      <c r="D46" t="n">
+        <v>21982.4</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4674.2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3994.8</v>
+      </c>
+      <c r="G46" t="n">
+        <v>9068.4</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9445</v>
+      </c>
+      <c r="I46" t="n">
+        <v>8562.6</v>
+      </c>
+      <c r="J46" t="n">
+        <v>6831.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>9531</v>
+      </c>
+      <c r="L46" t="n">
+        <v>24795.9</v>
+      </c>
+      <c r="M46" t="n">
+        <v>24273</v>
+      </c>
+      <c r="N46" t="n">
+        <v>25347</v>
+      </c>
+      <c r="O46" t="n">
+        <v>24783.4</v>
+      </c>
+      <c r="P46" t="n">
+        <v>22788.4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>4515.7</v>
+      </c>
+      <c r="C47" t="n">
+        <v>9220.4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>24507</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4690.1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4508.5</v>
+      </c>
+      <c r="G47" t="n">
+        <v>8891.299999999999</v>
+      </c>
+      <c r="H47" t="n">
+        <v>9715.200000000001</v>
+      </c>
+      <c r="I47" t="n">
+        <v>9713.799999999999</v>
+      </c>
+      <c r="J47" t="n">
+        <v>7535.9</v>
+      </c>
+      <c r="K47" t="n">
+        <v>9437.9</v>
+      </c>
+      <c r="L47" t="n">
+        <v>22451.1</v>
+      </c>
+      <c r="M47" t="n">
+        <v>22298.7</v>
+      </c>
+      <c r="N47" t="n">
+        <v>24759.2</v>
+      </c>
+      <c r="O47" t="n">
+        <v>25887.7</v>
+      </c>
+      <c r="P47" t="n">
+        <v>24334.9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2223</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4607.2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2826.4</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2141.2</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4228.3</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5334.9</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3286.9</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3525.9</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4659.8</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5506,7 +8101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE36"/>
+  <dimension ref="A1:AE48"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A33" sqref="A33:A36"/>
@@ -5517,34 +8112,34 @@
     <col width="24" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="5"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="4" max="5"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="9" customWidth="1" min="10" max="10"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
-    <col width="9" customWidth="1" min="13" max="13"/>
-    <col width="9" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="9" customWidth="1" min="16" max="16"/>
-    <col width="9" customWidth="1" min="17" max="17"/>
-    <col width="9" customWidth="1" min="18" max="18"/>
-    <col width="9" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="9" customWidth="1" min="21" max="21"/>
-    <col width="9" customWidth="1" min="22" max="22"/>
-    <col width="9" customWidth="1" min="23" max="23"/>
-    <col width="9" customWidth="1" min="24" max="24"/>
-    <col width="9" customWidth="1" min="25" max="25"/>
-    <col width="9" customWidth="1" min="26" max="26"/>
-    <col width="9" customWidth="1" min="27" max="27"/>
-    <col width="9" customWidth="1" min="28" max="28"/>
-    <col width="9" customWidth="1" min="29" max="29"/>
-    <col width="9" customWidth="1" min="30" max="30"/>
-    <col width="9" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="6" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5589,16 +8184,16 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>5069.3</v>
+        <v>2146</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2146</v>
       </c>
       <c r="E2" t="n">
-        <v>8951</v>
+        <v>2146</v>
       </c>
       <c r="F2" t="n">
-        <v>3373.807257387416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5611,16 +8206,16 @@
         <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>6179.2</v>
+        <v>2953</v>
       </c>
       <c r="D3" t="n">
-        <v>744</v>
+        <v>2953</v>
       </c>
       <c r="E3" t="n">
-        <v>12364</v>
+        <v>2953</v>
       </c>
       <c r="F3" t="n">
-        <v>4356.500058533225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -5633,16 +8228,16 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>19229.3</v>
+        <v>14668</v>
       </c>
       <c r="D4" t="n">
-        <v>11076</v>
+        <v>14668</v>
       </c>
       <c r="E4" t="n">
-        <v>31071</v>
+        <v>14668</v>
       </c>
       <c r="F4" t="n">
-        <v>5801.939090511034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5655,16 +8250,16 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>2178</v>
+        <v>2124</v>
       </c>
       <c r="D5" t="n">
-        <v>898</v>
+        <v>2124</v>
       </c>
       <c r="E5" t="n">
-        <v>3048</v>
+        <v>2124</v>
       </c>
       <c r="F5" t="n">
-        <v>581.0337339604303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -5677,16 +8272,16 @@
         <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>6174.1</v>
+        <v>6264</v>
       </c>
       <c r="D6" t="n">
-        <v>5068</v>
+        <v>6264</v>
       </c>
       <c r="E6" t="n">
-        <v>6744</v>
+        <v>6264</v>
       </c>
       <c r="F6" t="n">
-        <v>547.4507192432941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -5699,16 +8294,16 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>19487.2</v>
+        <v>18902</v>
       </c>
       <c r="D7" t="n">
-        <v>17702</v>
+        <v>18902</v>
       </c>
       <c r="E7" t="n">
-        <v>21015</v>
+        <v>18902</v>
       </c>
       <c r="F7" t="n">
-        <v>981.0299485744562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -5721,16 +8316,16 @@
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>3715.8</v>
+        <v>5175</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>5175</v>
       </c>
       <c r="E8" t="n">
-        <v>8219</v>
+        <v>5175</v>
       </c>
       <c r="F8" t="n">
-        <v>2334.07651117096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -5743,16 +8338,16 @@
         <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>8655.6</v>
+        <v>8531</v>
       </c>
       <c r="D9" t="n">
-        <v>4370</v>
+        <v>8531</v>
       </c>
       <c r="E9" t="n">
-        <v>14279</v>
+        <v>8531</v>
       </c>
       <c r="F9" t="n">
-        <v>2923.103186683632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -5765,16 +8360,16 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>19660.6</v>
+        <v>19133</v>
       </c>
       <c r="D10" t="n">
-        <v>6436</v>
+        <v>19133</v>
       </c>
       <c r="E10" t="n">
-        <v>25487</v>
+        <v>19133</v>
       </c>
       <c r="F10" t="n">
-        <v>5653.904689681282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5787,16 +8382,16 @@
         <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>10462.4</v>
+        <v>15246</v>
       </c>
       <c r="D11" t="n">
-        <v>4778</v>
+        <v>15246</v>
       </c>
       <c r="E11" t="n">
-        <v>22380</v>
+        <v>15246</v>
       </c>
       <c r="F11" t="n">
-        <v>4682.005642884254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -5809,16 +8404,16 @@
         <v>40</v>
       </c>
       <c r="C12" t="n">
-        <v>14776.4</v>
+        <v>23721</v>
       </c>
       <c r="D12" t="n">
-        <v>5573</v>
+        <v>23721</v>
       </c>
       <c r="E12" t="n">
-        <v>23444</v>
+        <v>23721</v>
       </c>
       <c r="F12" t="n">
-        <v>6415.855144873518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -5831,82 +8426,148 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>29774.6</v>
+        <v>28661</v>
       </c>
       <c r="D13" t="n">
-        <v>17173</v>
+        <v>28661</v>
       </c>
       <c r="E13" t="n">
-        <v>40730</v>
+        <v>28661</v>
       </c>
       <c r="F13" t="n">
-        <v>6710.40514723217</v>
-      </c>
-    </row>
-    <row r="14"/>
-    <row r="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4003</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4003</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4003</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>40</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3697</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3697</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3697</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
-          <t>Summary by Algorithm</t>
-        </is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4704</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4704</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4704</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Random</t>
-        </is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>10159.26666666667</v>
+        <v>24092</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>24092</v>
       </c>
       <c r="E17" t="n">
-        <v>31071</v>
+        <v>24092</v>
       </c>
       <c r="F17" t="n">
-        <v>7917.035669716006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fuzzy</t>
-        </is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>9279.766666666666</v>
+        <v>46563</v>
       </c>
       <c r="D18" t="n">
-        <v>898</v>
+        <v>46563</v>
       </c>
       <c r="E18" t="n">
-        <v>21015</v>
+        <v>46563</v>
       </c>
       <c r="F18" t="n">
-        <v>7435.762071159142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NSGA3</t>
-        </is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>10677.33333333333</v>
+        <v>226134</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>226134</v>
       </c>
       <c r="E19" t="n">
-        <v>25487</v>
+        <v>226134</v>
       </c>
       <c r="F19" t="n">
-        <v>7728.917898961593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5929,92 +8590,140 @@
       </c>
     </row>
     <row r="21"/>
-    <row r="22"/>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>Summary by Algorithm</t>
+        </is>
+      </c>
+    </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>Average data for chart</t>
-        </is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>6589</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2146</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14668</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5722.207790704563</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Algorithms</t>
+          <t>Fuzzy</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>20</v>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>9096.666666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>100</v>
+        <v>2124</v>
+      </c>
+      <c r="E24" t="n">
+        <v>18902</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7136.447357676569</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Random</t>
+          <t>NSGA3</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>5069.3</v>
       </c>
       <c r="C25" t="n">
-        <v>6179.2</v>
+        <v>10946.33333333333</v>
       </c>
       <c r="D25" t="n">
-        <v>19229.3</v>
+        <v>5175</v>
+      </c>
+      <c r="E25" t="n">
+        <v>19133</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5948.771152281975</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fuzzy</t>
+          <t>QUEST</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2178</v>
       </c>
       <c r="C26" t="n">
-        <v>6174.1</v>
+        <v>22542.66666666667</v>
       </c>
       <c r="D26" t="n">
-        <v>19487.2</v>
+        <v>15246</v>
+      </c>
+      <c r="E26" t="n">
+        <v>28661</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5539.669564955016</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NSGA3</t>
+          <t>MQGA</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>3715.8</v>
       </c>
       <c r="C27" t="n">
-        <v>8655.6</v>
+        <v>4134.666666666667</v>
       </c>
       <c r="D27" t="n">
-        <v>19660.6</v>
+        <v>3697</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4704</v>
+      </c>
+      <c r="F27" t="n">
+        <v>421.516574077725</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>QUEST</t>
+          <t>greedy</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>10462.4</v>
       </c>
       <c r="C28" t="n">
-        <v>14776.4</v>
+        <v>98929.66666666667</v>
       </c>
       <c r="D28" t="n">
-        <v>29774.6</v>
+        <v>24092</v>
+      </c>
+      <c r="E28" t="n">
+        <v>226134</v>
+      </c>
+      <c r="F28" t="n">
+        <v>90413.6541101816</v>
       </c>
     </row>
     <row r="29"/>
@@ -6022,7 +8731,7 @@
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>All data for chart</t>
+          <t>Average data for chart</t>
         </is>
       </c>
     </row>
@@ -6036,10 +8745,10 @@
         <v>20</v>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D32" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E32" t="n">
         <v>20</v>
@@ -6130,13 +8839,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5927</v>
+        <v>2146</v>
       </c>
       <c r="C33" t="n">
-        <v>8805</v>
+        <v>2953</v>
       </c>
       <c r="D33" t="n">
-        <v>7959</v>
+        <v>14668</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -6230,10 +8939,10 @@
         <v>2124</v>
       </c>
       <c r="C34" t="n">
-        <v>2624</v>
+        <v>6264</v>
       </c>
       <c r="D34" t="n">
-        <v>898</v>
+        <v>18902</v>
       </c>
       <c r="E34" t="n">
         <v>2513</v>
@@ -6324,13 +9033,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1969</v>
+        <v>5175</v>
       </c>
       <c r="C35" t="n">
-        <v>4575</v>
+        <v>8531</v>
       </c>
       <c r="D35" t="n">
-        <v>2531</v>
+        <v>19133</v>
       </c>
       <c r="E35" t="n">
         <v>2781</v>
@@ -6421,13 +9130,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7786</v>
+        <v>15246</v>
       </c>
       <c r="C36" t="n">
-        <v>4778</v>
+        <v>23721</v>
       </c>
       <c r="D36" t="n">
-        <v>9660</v>
+        <v>28661</v>
       </c>
       <c r="E36" t="n">
         <v>22380</v>
@@ -6509,6 +9218,411 @@
       </c>
       <c r="AE36" t="n">
         <v>34724</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>4003</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3697</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4704</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>24092</v>
+      </c>
+      <c r="C38" t="n">
+        <v>46563</v>
+      </c>
+      <c r="D38" t="n">
+        <v>226134</v>
+      </c>
+    </row>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>All data for chart</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>20</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="n">
+        <v>100</v>
+      </c>
+      <c r="E42" t="n">
+        <v>20</v>
+      </c>
+      <c r="F42" t="n">
+        <v>20</v>
+      </c>
+      <c r="G42" t="n">
+        <v>40</v>
+      </c>
+      <c r="H42" t="n">
+        <v>40</v>
+      </c>
+      <c r="I42" t="n">
+        <v>40</v>
+      </c>
+      <c r="J42" t="n">
+        <v>40</v>
+      </c>
+      <c r="K42" t="n">
+        <v>40</v>
+      </c>
+      <c r="L42" t="n">
+        <v>100</v>
+      </c>
+      <c r="M42" t="n">
+        <v>100</v>
+      </c>
+      <c r="N42" t="n">
+        <v>100</v>
+      </c>
+      <c r="O42" t="n">
+        <v>100</v>
+      </c>
+      <c r="P42" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2146</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2953</v>
+      </c>
+      <c r="D43" t="n">
+        <v>14668</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3424</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6295</v>
+      </c>
+      <c r="G43" t="n">
+        <v>11035</v>
+      </c>
+      <c r="H43" t="n">
+        <v>14261</v>
+      </c>
+      <c r="I43" t="n">
+        <v>10174</v>
+      </c>
+      <c r="J43" t="n">
+        <v>6093</v>
+      </c>
+      <c r="K43" t="n">
+        <v>4733</v>
+      </c>
+      <c r="L43" t="n">
+        <v>25879</v>
+      </c>
+      <c r="M43" t="n">
+        <v>16244</v>
+      </c>
+      <c r="N43" t="n">
+        <v>21966</v>
+      </c>
+      <c r="O43" t="n">
+        <v>9780</v>
+      </c>
+      <c r="P43" t="n">
+        <v>28972</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuzzy</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2124</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6264</v>
+      </c>
+      <c r="D44" t="n">
+        <v>18902</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2513</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2578</v>
+      </c>
+      <c r="G44" t="n">
+        <v>6264</v>
+      </c>
+      <c r="H44" t="n">
+        <v>6744</v>
+      </c>
+      <c r="I44" t="n">
+        <v>6341</v>
+      </c>
+      <c r="J44" t="n">
+        <v>5068</v>
+      </c>
+      <c r="K44" t="n">
+        <v>6146</v>
+      </c>
+      <c r="L44" t="n">
+        <v>18902</v>
+      </c>
+      <c r="M44" t="n">
+        <v>19728</v>
+      </c>
+      <c r="N44" t="n">
+        <v>20161</v>
+      </c>
+      <c r="O44" t="n">
+        <v>21015</v>
+      </c>
+      <c r="P44" t="n">
+        <v>19704</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>NSGA3</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>5175</v>
+      </c>
+      <c r="C45" t="n">
+        <v>8531</v>
+      </c>
+      <c r="D45" t="n">
+        <v>19133</v>
+      </c>
+      <c r="E45" t="n">
+        <v>6488</v>
+      </c>
+      <c r="F45" t="n">
+        <v>617</v>
+      </c>
+      <c r="G45" t="n">
+        <v>12969</v>
+      </c>
+      <c r="H45" t="n">
+        <v>12215</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5186</v>
+      </c>
+      <c r="J45" t="n">
+        <v>8568</v>
+      </c>
+      <c r="K45" t="n">
+        <v>19236</v>
+      </c>
+      <c r="L45" t="n">
+        <v>26932</v>
+      </c>
+      <c r="M45" t="n">
+        <v>22184</v>
+      </c>
+      <c r="N45" t="n">
+        <v>19461</v>
+      </c>
+      <c r="O45" t="n">
+        <v>22256</v>
+      </c>
+      <c r="P45" t="n">
+        <v>26006</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>QUEST</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>15246</v>
+      </c>
+      <c r="C46" t="n">
+        <v>23721</v>
+      </c>
+      <c r="D46" t="n">
+        <v>28661</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5647</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8689</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10662</v>
+      </c>
+      <c r="H46" t="n">
+        <v>12139</v>
+      </c>
+      <c r="I46" t="n">
+        <v>14209</v>
+      </c>
+      <c r="J46" t="n">
+        <v>15761</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3614</v>
+      </c>
+      <c r="L46" t="n">
+        <v>6789</v>
+      </c>
+      <c r="M46" t="n">
+        <v>18957</v>
+      </c>
+      <c r="N46" t="n">
+        <v>18562</v>
+      </c>
+      <c r="O46" t="n">
+        <v>32872</v>
+      </c>
+      <c r="P46" t="n">
+        <v>33877</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MQGA</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>4003</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3697</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4704</v>
+      </c>
+      <c r="E47" t="n">
+        <v>9842</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6672</v>
+      </c>
+      <c r="G47" t="n">
+        <v>12681</v>
+      </c>
+      <c r="H47" t="n">
+        <v>8900</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5191</v>
+      </c>
+      <c r="J47" t="n">
+        <v>9439</v>
+      </c>
+      <c r="K47" t="n">
+        <v>6258</v>
+      </c>
+      <c r="L47" t="n">
+        <v>26889</v>
+      </c>
+      <c r="M47" t="n">
+        <v>37135</v>
+      </c>
+      <c r="N47" t="n">
+        <v>22608</v>
+      </c>
+      <c r="O47" t="n">
+        <v>22422</v>
+      </c>
+      <c r="P47" t="n">
+        <v>21147</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>24092</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46563</v>
+      </c>
+      <c r="D48" t="n">
+        <v>226134</v>
+      </c>
+      <c r="E48" t="n">
+        <v>21704</v>
+      </c>
+      <c r="F48" t="n">
+        <v>24696</v>
+      </c>
+      <c r="G48" t="n">
+        <v>50890</v>
+      </c>
+      <c r="H48" t="n">
+        <v>46416</v>
+      </c>
+      <c r="I48" t="n">
+        <v>57023</v>
+      </c>
+      <c r="J48" t="n">
+        <v>41929</v>
+      </c>
+      <c r="K48" t="n">
+        <v>45419</v>
+      </c>
+      <c r="L48" t="n">
+        <v>226134</v>
+      </c>
+      <c r="M48" t="n">
+        <v>235098</v>
+      </c>
+      <c r="N48" t="n">
+        <v>240880</v>
+      </c>
+      <c r="O48" t="n">
+        <v>249580</v>
+      </c>
+      <c r="P48" t="n">
+        <v>236488</v>
       </c>
     </row>
   </sheetData>
